--- a/source.xlsx
+++ b/source.xlsx
@@ -16,9 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>kajendaran</t>
+  </si>
+  <si>
+    <t>rollno</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
   </si>
 </sst>
 </file>
@@ -360,26 +375,26 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>23</v>
+      <c r="A1" t="s">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>100</v>
-      </c>
-      <c r="D1">
-        <v>100</v>
-      </c>
-      <c r="E1">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
